--- a/ITEST/itest.WebService/openl-repository/deployment4/simple4/module2.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment4/simple4/module2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment3\simple3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment4\simple4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114504E9-E57A-44B0-804D-DA9F6CB7908A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80787D70-49CB-4FBB-B144-213A1B14A1EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="3390" windowWidth="28845" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mysprs" sheetId="8" r:id="rId1"/>
     <sheet name="mysprs2" sheetId="9" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Steps</t>
   </si>
   <si>
-    <t>Step1</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult mySpr()</t>
   </si>
   <si>
@@ -64,6 +61,12 @@
   </si>
   <si>
     <t>Spreadsheet SpreadsheetResult mySpr2()</t>
+  </si>
+  <si>
+    <t>Step1~</t>
+  </si>
+  <si>
+    <t>Step2</t>
   </si>
 </sst>
 </file>
@@ -451,49 +454,49 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="10"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -502,9 +505,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -513,73 +516,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -598,65 +601,65 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="10"/>
       <c r="C5" s="2"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -665,9 +668,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="10">
         <v>3</v>
@@ -676,79 +679,79 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="10"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
